--- a/data/trans_media/dukeCONF-Habitat-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,9; 89,09</t>
+          <t>83,57; 88,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,73; 85,84</t>
+          <t>79,24; 85,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,35; 85,12</t>
+          <t>77,76; 85,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,58; 85,52</t>
+          <t>77,34; 85,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,91; 81,66</t>
+          <t>74,2; 81,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,69; 82,77</t>
+          <t>76,32; 83,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,47; 82,81</t>
+          <t>75,58; 82,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,04; 86,03</t>
+          <t>80,96; 86,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,19; 84,59</t>
+          <t>79,89; 84,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,55; 83,52</t>
+          <t>78,44; 83,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,0; 83,14</t>
+          <t>77,9; 83,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,42; 84,92</t>
+          <t>80,49; 84,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,46; 81,5</t>
+          <t>78,41; 81,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,62; 88,32</t>
+          <t>85,66; 88,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,75; 81,79</t>
+          <t>78,78; 81,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,22; 85,66</t>
+          <t>82,22; 85,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,67; 78,07</t>
+          <t>74,84; 78,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,87; 85,77</t>
+          <t>82,92; 85,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 80,48</t>
+          <t>77,45; 80,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,4; 84,01</t>
+          <t>81,45; 84,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,23; 79,38</t>
+          <t>77,24; 79,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,68; 86,72</t>
+          <t>84,66; 86,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,61; 80,67</t>
+          <t>78,5; 80,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,17; 84,37</t>
+          <t>82,16; 84,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,17; 83,64</t>
+          <t>81,25; 83,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,92; 85,18</t>
+          <t>82,93; 85,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,2; 83,26</t>
+          <t>81,24; 83,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,21; 87,43</t>
+          <t>83,2; 87,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,21; 81,68</t>
+          <t>79,21; 81,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,5; 83,69</t>
+          <t>81,47; 83,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,45; 82,44</t>
+          <t>80,42; 82,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,9; 83,11</t>
+          <t>80,79; 83,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,68; 82,37</t>
+          <t>80,65; 82,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>82,52; 84,1</t>
+          <t>82,47; 84,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,14; 82,63</t>
+          <t>81,23; 82,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,39; 84,69</t>
+          <t>82,43; 84,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,68; 85,65</t>
+          <t>82,62; 85,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,83; 85,64</t>
+          <t>82,86; 85,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,69; 79,93</t>
+          <t>77,57; 79,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,85; 85,68</t>
+          <t>82,95; 85,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,0; 82,97</t>
+          <t>80,11; 83,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,85; 83,62</t>
+          <t>80,88; 83,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,13; 79,48</t>
+          <t>77,06; 79,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,15; 84,76</t>
+          <t>82,15; 84,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,62; 83,8</t>
+          <t>81,83; 83,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,18; 84,14</t>
+          <t>82,19; 84,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77,69; 79,3</t>
+          <t>77,7; 79,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>82,91; 84,84</t>
+          <t>82,81; 84,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,53; 83,06</t>
+          <t>80,37; 82,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,63; 83,94</t>
+          <t>81,74; 84,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,46; 82,65</t>
+          <t>80,47; 82,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,7; 85,33</t>
+          <t>82,71; 85,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,5; 81,14</t>
+          <t>78,43; 81,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,8; 82,03</t>
+          <t>79,66; 81,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,58; 82,02</t>
+          <t>79,81; 82,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,49; 84,7</t>
+          <t>82,59; 84,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,85; 81,72</t>
+          <t>79,94; 81,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>81,02; 82,62</t>
+          <t>80,92; 82,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>80,4; 82,03</t>
+          <t>80,43; 81,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>83,0; 84,7</t>
+          <t>82,99; 84,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,71; 82,99</t>
+          <t>81,68; 82,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,61; 84,88</t>
+          <t>83,6; 84,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,32; 81,5</t>
+          <t>80,28; 81,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,45; 85,06</t>
+          <t>83,49; 85,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>79,08; 80,46</t>
+          <t>79,1; 80,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,62; 82,86</t>
+          <t>81,6; 82,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,56; 80,69</t>
+          <t>79,64; 80,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,45; 83,6</t>
+          <t>82,44; 83,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,55; 81,5</t>
+          <t>80,51; 81,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,79; 83,66</t>
+          <t>82,78; 83,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,13; 80,95</t>
+          <t>80,17; 80,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>83,09; 84,07</t>
+          <t>83,08; 84,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeCONF-Habitat-trans_media.xlsx
+++ b/data/trans_media/dukeCONF-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>83,8; 88,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,24; 85,95</t>
+          <t>78,94; 85,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,76; 85,48</t>
+          <t>77,62; 85,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,2; 81,34</t>
+          <t>74,75; 81,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,32; 83,53</t>
+          <t>75,81; 83,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,58; 82,83</t>
+          <t>75,67; 82,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,89; 84,65</t>
+          <t>80,33; 84,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,44; 83,62</t>
+          <t>78,66; 83,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,9; 83,28</t>
+          <t>77,99; 83,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,41; 81,48</t>
+          <t>78,52; 81,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,66; 88,42</t>
+          <t>85,64; 88,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,78; 81,83</t>
+          <t>78,79; 81,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,84; 78,32</t>
+          <t>74,87; 78,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,92; 85,87</t>
+          <t>82,91; 85,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,45; 80,3</t>
+          <t>77,31; 80,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,24; 79,54</t>
+          <t>77,15; 79,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84,66; 86,56</t>
+          <t>84,74; 86,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,5; 80,63</t>
+          <t>78,6; 80,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,25; 83,66</t>
+          <t>81,11; 83,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,93; 85,21</t>
+          <t>82,89; 85,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,24; 83,37</t>
+          <t>81,33; 83,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,21; 81,67</t>
+          <t>79,26; 81,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,47; 83,74</t>
+          <t>81,41; 83,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,42; 82,47</t>
+          <t>80,31; 82,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,65; 82,45</t>
+          <t>80,65; 82,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>82,47; 84,1</t>
+          <t>82,49; 84,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,23; 82,69</t>
+          <t>81,12; 82,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,62; 85,47</t>
+          <t>82,55; 85,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,86; 85,75</t>
+          <t>82,82; 85,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,9</t>
+          <t>77,78; 79,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,11; 83,19</t>
+          <t>79,92; 83,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,88; 83,56</t>
+          <t>80,87; 83,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,06; 79,38</t>
+          <t>77,07; 79,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,83; 83,86</t>
+          <t>81,76; 83,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,19; 84,24</t>
+          <t>82,24; 84,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77,7; 79,35</t>
+          <t>77,65; 79,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,37; 82,93</t>
+          <t>80,35; 82,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,74; 84,13</t>
+          <t>81,66; 84,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,47; 82,64</t>
+          <t>80,34; 82,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,43; 81,21</t>
+          <t>78,49; 81,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,66; 81,92</t>
+          <t>79,71; 81,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,81; 82,01</t>
+          <t>79,73; 81,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,94; 81,84</t>
+          <t>79,77; 81,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80,92; 82,66</t>
+          <t>80,99; 82,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>80,43; 81,96</t>
+          <t>80,41; 82,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,68; 82,99</t>
+          <t>81,7; 83,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,6; 84,86</t>
+          <t>83,63; 84,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,28; 81,51</t>
+          <t>80,42; 81,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>79,1; 80,47</t>
+          <t>79,08; 80,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,6; 82,86</t>
+          <t>81,57; 82,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,64; 80,74</t>
+          <t>79,53; 80,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,51; 81,5</t>
+          <t>80,56; 81,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,78; 83,65</t>
+          <t>82,77; 83,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,17; 80,98</t>
+          <t>80,16; 80,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
